--- a/exceles/Listado clientes PRUEBA.xlsx
+++ b/exceles/Listado clientes PRUEBA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive - Universidad del rosario\Escritorio\lomarosa-data\cartera_final\exceles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\OneDrive - Universidad del rosario\Escritorio\correoscartera\exceles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E9ED75-0865-4265-8F4B-DE680BE07DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33501F3-4BCF-4AAF-AE43-B95D138F7B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E74AF07-B6F3-41BE-8F93-819240564679}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E74AF07-B6F3-41BE-8F93-819240564679}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3210,7 +3210,7 @@
     <t>cg629271@gmail.com</t>
   </si>
   <si>
-    <t>j.gutierrez@grupolom.com</t>
+    <t>javier06fernando23@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3837,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3438C75-D72D-4C64-B353-149E45D92FC9}">
   <dimension ref="A1:G953"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
+      <selection activeCell="F953" sqref="F953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
